--- a/biology/Zoologie/Académie_vétérinaire_de_France/Académie_vétérinaire_de_France.xlsx
+++ b/biology/Zoologie/Académie_vétérinaire_de_France/Académie_vétérinaire_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_v%C3%A9t%C3%A9rinaire_de_France</t>
+          <t>Académie_vétérinaire_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société de Médecine vétérinaire et de Médecine comparée est créée en 1844 par un groupe de vétérinaires parisiens, dont Urbain Leblanc, Hamon et Villate. Leur journal est La Clinique. Peu après, vingt vétérinaires parisiens fondent une seconde société : la Société Vétérinaire du Département de la Seine qui deviendra le 21 novembre la Société Centrale de Médecine Vétérinaire en fusionnant avec la première en 1848.
 Elle sera reconnue d'utilité publique le 16 avril 1878.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_v%C3%A9t%C3%A9rinaire_de_France</t>
+          <t>Académie_vétérinaire_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les séances sont publiques, sauf les Assemblées générales et les réunions concernant les sujets internes (statuts, élections, par exemple) qui sont limitées aux membres ayant le droit de vote (émérites et titulaires).
 Les séances (excepté modifications liées aux circonstances, vacances, jours fériés…) ont lieu en principe les premiers et troisièmes jeudis du mois (sauf du 1er juillet au 30 septembre), à 14 h dans les locaux de l'Académie nationale de chirurgie, 15 rue de l'École-de-Médecine à Paris.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_v%C3%A9t%C3%A9rinaire_de_France</t>
+          <t>Académie_vétérinaire_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Liste des présidents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste énumérée jusqu'en 2017 par l'Académie Vétérinaire de France[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste énumérée jusqu'en 2017 par l'Académie Vétérinaire de France.
 1844 : E. Barthémélémy ;
 1845 : E. Barthémélémy ;
 1846 : A. Yvart ;
@@ -663,7 +679,7 @@
 1959 : Georges Guillot ;
 1960 : Armand Névot ;
 1961 : Louis Nicol ;
-1962 : Alexandre Lucas[2], Fernand Méry ;
+1962 : Alexandre Lucas, Fernand Méry ;
 1963 : Jean Guilhon ;
 1964 : Henri Drieux ;
 1965 : Albert Houdinière ;
@@ -698,7 +714,7 @@
 1994 : Claude Michel ;
 1995 : Jaques Delage ;
 1996 : René Seynave ;
-1997 : Maurice Durand[3] ;
+1997 : Maurice Durand ;
 1998 : Roland Rosset ;
 1999 : Philippe de Wailly ;
 2000 : André Parodi ;
